--- a/src/main/resources/MPT.xlsx
+++ b/src/main/resources/MPT.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atk/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9FC761-D74F-5646-A241-2B77C637D161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE43050-8013-E543-B919-B070942FCD0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{83FF09DF-6175-EA40-9656-B3ECD8C4E84E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" activeTab="2" xr2:uid="{83FF09DF-6175-EA40-9656-B3ECD8C4E84E}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Voice" sheetId="2" r:id="rId2"/>
+    <sheet name="Gaming" sheetId="3" r:id="rId3"/>
+    <sheet name="Entertainment " sheetId="4" r:id="rId4"/>
+    <sheet name="Data+Call Combos" sheetId="5" r:id="rId5"/>
+    <sheet name="SMS" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="117">
   <si>
     <t>No</t>
   </si>
@@ -294,6 +298,210 @@
   <si>
     <t>AR 30 Days A Kyite Pyaw</t>
   </si>
+  <si>
+    <t>Gaming</t>
+  </si>
+  <si>
+    <t>MLBB+PUBG Combo Pack (450MB) (100% Cashback) (30D)</t>
+  </si>
+  <si>
+    <t>MLBB_PUBG_Combo_30D</t>
+  </si>
+  <si>
+    <t>Mobile Legends Data Pack (30 Days) (450MB and 3 MLBB Diamonds)</t>
+  </si>
+  <si>
+    <t>Mobile Legends Pack</t>
+  </si>
+  <si>
+    <t>MLBB+PUBG Combo Pack (Unlimited Data) (1D)</t>
+  </si>
+  <si>
+    <t>MLBB_PUBG_Combo_1D_NonAR</t>
+  </si>
+  <si>
+    <t>MLBB+PUBG Combo Pack (Unlimited Data) (7D)</t>
+  </si>
+  <si>
+    <t>MLBB_PUBG_Combo_7D_NonAR</t>
+  </si>
+  <si>
+    <t>PUBG Mobile Data Pack (Unlimited Data) (1D)</t>
+  </si>
+  <si>
+    <t>PUBG Mobile Data Pack (Non Auto renew 1 day )</t>
+  </si>
+  <si>
+    <t>PUBG Mobile Data Pack (Unlimited Data) (7D)</t>
+  </si>
+  <si>
+    <t>PUBG Mobile Data Pack (Non Auto renew 7 days)</t>
+  </si>
+  <si>
+    <t>PUBG Mobile Data Pack (450MB)(100% CashBack)(30D)</t>
+  </si>
+  <si>
+    <t>PUBG Mobile Data Pack (30 days)</t>
+  </si>
+  <si>
+    <t>Mobile Legends Data Pack (Unlimited Data) (1 Day Auto Renew)</t>
+  </si>
+  <si>
+    <t>MLBB_1Day_AR</t>
+  </si>
+  <si>
+    <t>Mobile Legends Data Pack (Unlimited Data) (1 Day)</t>
+  </si>
+  <si>
+    <t>Mobile_Legends_1Day_Unlimited_Data</t>
+  </si>
+  <si>
+    <t>Mobile Legends Data Pack (Unlimited Data) (7 Days Auto Renew)</t>
+  </si>
+  <si>
+    <t>ML_Data_7days_AR_wo_dia</t>
+  </si>
+  <si>
+    <t>Mobile Legends Data Pack (Unlimited Data) (7 Days)</t>
+  </si>
+  <si>
+    <t>ML_Data_7days_Non AR_wo_dia</t>
+  </si>
+  <si>
+    <t>Mobile Legends Data Pack (450MB) (30 Days)</t>
+  </si>
+  <si>
+    <t>ML_Data_30days_wo_dia</t>
+  </si>
+  <si>
+    <t>Mobile Legends Data Pack (Unlimited Data and 1 MLBB Diamond) (1 Day)</t>
+  </si>
+  <si>
+    <t>Mobile_Legends_Unlimited_Data_1_day_Pack</t>
+  </si>
+  <si>
+    <t>Renewal MLBB+PUBG Combo Pack (Unlimited Data) (7D)</t>
+  </si>
+  <si>
+    <t>MLBB_PUBG_Combo_7D_AR</t>
+  </si>
+  <si>
+    <t>Renewal MLBB+PUBG Combo Pack (Unlimited Data) (1D)</t>
+  </si>
+  <si>
+    <t>MLBB_PUBG_Combo_1D_AR</t>
+  </si>
+  <si>
+    <t>AutoRenew PUBG Mobile DataPack(Unlimited Data)(7D)</t>
+  </si>
+  <si>
+    <t>PUBG Mobile Data Pack (Auto renew 7 days)</t>
+  </si>
+  <si>
+    <t>AutoRenew PUBG Mobile DataPack(Unlimited Data)(1D)</t>
+  </si>
+  <si>
+    <t>PUBG Pack (Auto renew 1 day)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entertainment </t>
+  </si>
+  <si>
+    <t>Daily Tay Than Thar Data Pack</t>
+  </si>
+  <si>
+    <t>Daily Shal Kyi Data Pack</t>
+  </si>
+  <si>
+    <t>Weekly Shal Kyi Data Pack</t>
+  </si>
+  <si>
+    <t>Weekly_Shal_Kyi_Data_Pack</t>
+  </si>
+  <si>
+    <t>Flow Music Data Pack (500MB) (1 Day)</t>
+  </si>
+  <si>
+    <t>Flow_Data_Pack_1Day_NonAR</t>
+  </si>
+  <si>
+    <t>Auto Renew Flow Music Data Pack (2500MB) (7 Days)</t>
+  </si>
+  <si>
+    <t>Flow_Data_Pack_7Days_AR</t>
+  </si>
+  <si>
+    <t>Flow Music Data Pack (2500MB) (7 Days)</t>
+  </si>
+  <si>
+    <t>Flow_Data_Pack_7Days_NonAR</t>
+  </si>
+  <si>
+    <t>Flow Music Data Pack (10000MB) (30 Days)</t>
+  </si>
+  <si>
+    <t>Flow_Data_Pack_30Days_NonAR</t>
+  </si>
+  <si>
+    <t>Data+Call Combos</t>
+  </si>
+  <si>
+    <t>AutoRenew 5X Htaw B 5000Ks (15 Days)</t>
+  </si>
+  <si>
+    <t>Auto_Renew_5X_HTAW_B_15Days</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1,000 Ks = 5,000 Ks Htaw B (15 days)     </t>
+  </si>
+  <si>
+    <t>Htaw_B_Pack_15Days</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2,000 Ks = 10,000 Ks Htaw B (30 days)</t>
+  </si>
+  <si>
+    <t>Htaw_B_Pack_30Days</t>
+  </si>
+  <si>
+    <t>AutoRenew 10X Htaw B 30000Ks (15 Days)</t>
+  </si>
+  <si>
+    <t>2900Ks*10_30000 Ks</t>
+  </si>
+  <si>
+    <t>3000Ks=30000Ks 10X Htaw B (15 Day)</t>
+  </si>
+  <si>
+    <t>3000Ks*10_30000 Ks</t>
+  </si>
+  <si>
+    <t>5000Ks=50000Ks 10X Htaw B (30 Day)</t>
+  </si>
+  <si>
+    <t>5000Ks*10_50000 Ks</t>
+  </si>
+  <si>
+    <t>10000Ks=100000Ks 10X Htaw B (90 Day)</t>
+  </si>
+  <si>
+    <t>10000Ks*10_100000 Ks</t>
+  </si>
+  <si>
+    <t>SMS</t>
+  </si>
+  <si>
+    <t>A Kyite Poh Unlimited SMS(30 Day)</t>
+  </si>
+  <si>
+    <t>A Kyite Poh 30 Days Pack</t>
+  </si>
+  <si>
+    <t>A Kyite Poh 24 Hours Pack</t>
+  </si>
+  <si>
+    <t>A Kyite Poh 7 Days Pack</t>
+  </si>
 </sst>
 </file>
 
@@ -301,9 +509,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -407,6 +615,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -507,7 +727,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -524,7 +744,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -536,7 +756,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -579,6 +799,95 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -586,7 +895,297 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 4" xfId="2" xr:uid="{F7174FB9-FBB4-9C48-9F13-63775AB805EE}"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="37">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -979,7 +1578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8913D0E-D12D-624F-A822-71DEB344EF02}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -1222,16 +1821,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:C9">
-    <cfRule type="duplicateValues" dxfId="7" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C14">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1242,7 +1841,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1422,4 +2021,699 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71BEB12C-E11F-814E-911E-9E14956FADA3}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="3" max="3" width="62.33203125" customWidth="1"/>
+    <col min="4" max="4" width="57.5" customWidth="1"/>
+    <col min="5" max="6" width="29.1640625" customWidth="1"/>
+    <col min="7" max="7" width="26.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>24</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="22">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>25</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="35">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>26</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="22">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>27</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="22">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>28</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="38">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>29</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="40">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>30</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="42">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>31</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="38">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>32</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="38">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>33</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="40">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>34</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="40">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>35</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="40">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>36</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="38">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>37</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="22">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>38</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="22">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>39</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="45">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>40</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="47">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D614D968-792F-6B47-899A-3A3E2637270B}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="3" max="3" width="62.33203125" customWidth="1"/>
+    <col min="4" max="4" width="57.5" customWidth="1"/>
+    <col min="5" max="6" width="29.1640625" customWidth="1"/>
+    <col min="7" max="7" width="26.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>41</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="49">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>42</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="49">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>43</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="49">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>44</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="52">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>45</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="52">
+        <v>729</v>
+      </c>
+      <c r="F6" s="53"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>46</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="52">
+        <v>799</v>
+      </c>
+      <c r="F7" s="53"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>47</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="52">
+        <v>2999</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C5:C7">
+    <cfRule type="duplicateValues" dxfId="28" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="duplicateValues" dxfId="24" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="21"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04EEA62B-2F32-B84B-967F-FD66B8852BF6}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="3" max="3" width="62.33203125" customWidth="1"/>
+    <col min="4" max="4" width="57.5" customWidth="1"/>
+    <col min="5" max="6" width="29.1640625" customWidth="1"/>
+    <col min="7" max="7" width="26.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>48</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="52">
+        <v>980</v>
+      </c>
+      <c r="F2" s="56"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>49</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="59">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>50</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="61">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>51</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="38">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>52</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="38">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>53</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="38">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>54</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="38">
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="duplicateValues" dxfId="20" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="25"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6975EC4F-959A-4B4B-98CC-B8C7C761F029}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="3" max="3" width="62.33203125" customWidth="1"/>
+    <col min="4" max="4" width="57.5" customWidth="1"/>
+    <col min="5" max="6" width="29.1640625" customWidth="1"/>
+    <col min="7" max="7" width="26.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>55</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="52">
+        <v>998</v>
+      </c>
+      <c r="F2" s="56"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>56</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="27">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>57</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="27">
+        <v>498</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>